--- a/Modeling/bistability_10.xlsx
+++ b/Modeling/bistability_10.xlsx
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2883256048086142</v>
+        <v>0.2875485941096902</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -416,10 +416,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2603891949612886</v>
+        <v>0.2794180213365492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -430,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2252042230891657</v>
+        <v>0.318309229157365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.128</v>
+        <v>0.136</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -444,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2411014584828127</v>
+        <v>0.345530871876517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192</v>
+        <v>0.205</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -458,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22483870397105</v>
+        <v>0.2409973449794933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.256</v>
+        <v>0.273</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -472,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2660775869583676</v>
+        <v>0.2481884955851724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.321</v>
+        <v>0.341</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -486,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2961911771649027</v>
+        <v>0.3029273499027089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.385</v>
+        <v>0.409</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -500,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3283780147063623</v>
+        <v>0.2953103837966581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.449</v>
+        <v>0.477</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3332197277252358</v>
+        <v>0.283564638303279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.513</v>
+        <v>0.545</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -528,10 +528,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3123355770953391</v>
+        <v>0.3343796924952732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.577</v>
+        <v>0.614</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4158857816899975</v>
+        <v>0.4293383821105887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.641</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4580770468819603</v>
+        <v>0.3896370166961422</v>
       </c>
       <c r="C13" t="n">
-        <v>0.705</v>
+        <v>0.75</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4978725705730385</v>
+        <v>0.4831147551967516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.769</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4573079918647723</v>
+        <v>0.512521368909541</v>
       </c>
       <c r="C15" t="n">
-        <v>0.833</v>
+        <v>0.886</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4875025429061936</v>
+        <v>0.497435152532279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.897</v>
+        <v>0.955</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -612,10 +612,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5584056698077849</v>
+        <v>0.5544227097374782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.962</v>
+        <v>1.023</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.580928197580605</v>
+        <v>0.5831149924311537</v>
       </c>
       <c r="C18" t="n">
-        <v>1.026</v>
+        <v>1.091</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -640,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6332043054551021</v>
+        <v>0.5789687549611914</v>
       </c>
       <c r="C19" t="n">
-        <v>1.09</v>
+        <v>1.159</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -654,10 +654,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5988598391764752</v>
+        <v>0.6357967358946003</v>
       </c>
       <c r="C20" t="n">
-        <v>1.154</v>
+        <v>1.227</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -668,10 +668,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5993779180828359</v>
+        <v>0.6954377068439437</v>
       </c>
       <c r="C21" t="n">
-        <v>1.218</v>
+        <v>1.295</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6682973083520337</v>
+        <v>0.6885053568090425</v>
       </c>
       <c r="C22" t="n">
-        <v>1.282</v>
+        <v>1.364</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -696,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6843599207688612</v>
+        <v>0.8339640536223288</v>
       </c>
       <c r="C23" t="n">
-        <v>1.346</v>
+        <v>1.432</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6757404037369131</v>
+        <v>0.7007600154790288</v>
       </c>
       <c r="C24" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -724,10 +724,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6793739851241664</v>
+        <v>0.7976732015980093</v>
       </c>
       <c r="C25" t="n">
-        <v>1.474</v>
+        <v>1.568</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7058756874966174</v>
+        <v>0.7762932499432863</v>
       </c>
       <c r="C26" t="n">
-        <v>1.538</v>
+        <v>1.636</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7185093104394414</v>
+        <v>0.8443225891840347</v>
       </c>
       <c r="C27" t="n">
-        <v>1.603</v>
+        <v>1.705</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7681208726414847</v>
+        <v>0.8433117738546917</v>
       </c>
       <c r="C28" t="n">
-        <v>1.667</v>
+        <v>1.773</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -780,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8771068753790165</v>
+        <v>1.830517987458049</v>
       </c>
       <c r="C29" t="n">
-        <v>1.731</v>
+        <v>1.841</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8883375885839379</v>
+        <v>1.555176981763619</v>
       </c>
       <c r="C30" t="n">
-        <v>1.795</v>
+        <v>1.909</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -808,10 +808,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.042297593865359</v>
+        <v>1.951520721034437</v>
       </c>
       <c r="C31" t="n">
-        <v>1.859</v>
+        <v>1.977</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -822,10 +822,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.056962821359964</v>
+        <v>2.27839429195789</v>
       </c>
       <c r="C32" t="n">
-        <v>1.923</v>
+        <v>2.045</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -836,10 +836,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.201244687737432</v>
+        <v>2.337836179203002</v>
       </c>
       <c r="C33" t="n">
-        <v>1.987</v>
+        <v>2.114</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -850,10 +850,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.206420410576091</v>
+        <v>2.311577715613861</v>
       </c>
       <c r="C34" t="n">
-        <v>2.051</v>
+        <v>2.182</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -864,10 +864,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.445745985443854</v>
+        <v>2.729628538973033</v>
       </c>
       <c r="C35" t="n">
-        <v>2.115</v>
+        <v>2.25</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -878,10 +878,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.439727907115345</v>
+        <v>2.788142994322274</v>
       </c>
       <c r="C36" t="n">
-        <v>2.179</v>
+        <v>2.318</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -892,10 +892,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.549751201655963</v>
+        <v>2.700010136453095</v>
       </c>
       <c r="C37" t="n">
-        <v>2.244</v>
+        <v>2.386</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -906,10 +906,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.742351694595084</v>
+        <v>2.712577879686547</v>
       </c>
       <c r="C38" t="n">
-        <v>2.308</v>
+        <v>2.455</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -920,10 +920,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.721404966594484</v>
+        <v>2.841804539430921</v>
       </c>
       <c r="C39" t="n">
-        <v>2.372</v>
+        <v>2.523</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -934,10 +934,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.565256736434807</v>
+        <v>2.748033616098138</v>
       </c>
       <c r="C40" t="n">
-        <v>2.436</v>
+        <v>2.591</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -948,10 +948,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.729022658055637</v>
+        <v>2.728372844592026</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5</v>
+        <v>2.659</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -959,83 +959,83 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3193706065825418</v>
+        <v>2.897491922511118</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.727</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2720966518721861</v>
+        <v>2.867262166573819</v>
       </c>
       <c r="C43" t="n">
-        <v>0.064</v>
+        <v>2.795</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3052221524315188</v>
+        <v>2.888376282248822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.128</v>
+        <v>2.864</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2715571201898971</v>
+        <v>2.954605677192177</v>
       </c>
       <c r="C45" t="n">
-        <v>0.192</v>
+        <v>2.932</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.254826297225655</v>
+        <v>2.938241905547384</v>
       </c>
       <c r="C46" t="n">
-        <v>0.256</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2567693401479375</v>
+        <v>0.2510155830840102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2656830426035419</v>
+        <v>0.2136309335068659</v>
       </c>
       <c r="C48" t="n">
-        <v>0.385</v>
+        <v>0.068</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3571912078926763</v>
+        <v>0.2296506026085207</v>
       </c>
       <c r="C49" t="n">
-        <v>0.449</v>
+        <v>0.136</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3309268972199875</v>
+        <v>0.2891129334462733</v>
       </c>
       <c r="C50" t="n">
-        <v>0.513</v>
+        <v>0.205</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3787800274764155</v>
+        <v>0.3354756078249574</v>
       </c>
       <c r="C51" t="n">
-        <v>0.577</v>
+        <v>0.273</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3872622790536344</v>
+        <v>0.2347045674231626</v>
       </c>
       <c r="C52" t="n">
-        <v>0.641</v>
+        <v>0.341</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4714796643915069</v>
+        <v>0.3223829923678005</v>
       </c>
       <c r="C53" t="n">
-        <v>0.705</v>
+        <v>0.409</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4118784813437865</v>
+        <v>0.3332821043723344</v>
       </c>
       <c r="C54" t="n">
-        <v>0.769</v>
+        <v>0.477</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4312592183734593</v>
+        <v>0.3573851865371614</v>
       </c>
       <c r="C55" t="n">
-        <v>0.833</v>
+        <v>0.545</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5351926772701914</v>
+        <v>0.3695162453242785</v>
       </c>
       <c r="C56" t="n">
-        <v>0.897</v>
+        <v>0.614</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5125235673601859</v>
+        <v>0.416517205587207</v>
       </c>
       <c r="C57" t="n">
-        <v>0.962</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6002718659286911</v>
+        <v>0.3897340569292002</v>
       </c>
       <c r="C58" t="n">
-        <v>1.026</v>
+        <v>0.75</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7419854418267821</v>
+        <v>0.4849964298485828</v>
       </c>
       <c r="C59" t="n">
-        <v>1.09</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B60" t="n">
-        <v>2.042214015821866</v>
+        <v>0.5247853128543545</v>
       </c>
       <c r="C60" t="n">
-        <v>1.154</v>
+        <v>0.886</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>2.314970860429304</v>
+        <v>0.5453851376188192</v>
       </c>
       <c r="C61" t="n">
-        <v>1.218</v>
+        <v>0.955</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>2.435936827061393</v>
+        <v>0.6389683139420264</v>
       </c>
       <c r="C62" t="n">
-        <v>1.282</v>
+        <v>1.023</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1253,13 +1253,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B63" t="n">
-        <v>2.566975768549701</v>
+        <v>0.7640274167394305</v>
       </c>
       <c r="C63" t="n">
-        <v>1.346</v>
+        <v>1.091</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B64" t="n">
-        <v>2.627089905080154</v>
+        <v>2.186976764151625</v>
       </c>
       <c r="C64" t="n">
-        <v>1.41</v>
+        <v>1.159</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B65" t="n">
-        <v>2.665609773428483</v>
+        <v>2.411852378811724</v>
       </c>
       <c r="C65" t="n">
-        <v>1.474</v>
+        <v>1.227</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>2.640890336559335</v>
+        <v>2.501854358581157</v>
       </c>
       <c r="C66" t="n">
-        <v>1.538</v>
+        <v>1.295</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B67" t="n">
-        <v>2.721514823369787</v>
+        <v>2.672187198419552</v>
       </c>
       <c r="C67" t="n">
-        <v>1.603</v>
+        <v>1.364</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -1323,13 +1323,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B68" t="n">
-        <v>2.74664440188927</v>
+        <v>2.590185875309879</v>
       </c>
       <c r="C68" t="n">
-        <v>1.667</v>
+        <v>1.432</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B69" t="n">
-        <v>2.849913498215662</v>
+        <v>2.620446629798236</v>
       </c>
       <c r="C69" t="n">
-        <v>1.731</v>
+        <v>1.5</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B70" t="n">
-        <v>2.866740385502796</v>
+        <v>2.753549065853205</v>
       </c>
       <c r="C70" t="n">
-        <v>1.795</v>
+        <v>1.568</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B71" t="n">
-        <v>2.755502210649921</v>
+        <v>2.722245314963888</v>
       </c>
       <c r="C71" t="n">
-        <v>1.859</v>
+        <v>1.636</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B72" t="n">
-        <v>2.788358873837287</v>
+        <v>2.786139510824258</v>
       </c>
       <c r="C72" t="n">
-        <v>1.923</v>
+        <v>1.705</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B73" t="n">
-        <v>2.897419990715266</v>
+        <v>2.774892401027516</v>
       </c>
       <c r="C73" t="n">
-        <v>1.987</v>
+        <v>1.773</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B74" t="n">
-        <v>2.881384450690792</v>
+        <v>2.857654258652051</v>
       </c>
       <c r="C74" t="n">
-        <v>2.051</v>
+        <v>1.841</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B75" t="n">
-        <v>2.854164187949888</v>
+        <v>2.827223125235182</v>
       </c>
       <c r="C75" t="n">
-        <v>2.115</v>
+        <v>1.909</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B76" t="n">
-        <v>2.998614830949545</v>
+        <v>2.84411128241841</v>
       </c>
       <c r="C76" t="n">
-        <v>2.179</v>
+        <v>1.977</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B77" t="n">
-        <v>2.857840037072917</v>
+        <v>2.869854269952671</v>
       </c>
       <c r="C77" t="n">
-        <v>2.244</v>
+        <v>2.045</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B78" t="n">
-        <v>2.892490172540744</v>
+        <v>2.931040109967769</v>
       </c>
       <c r="C78" t="n">
-        <v>2.308</v>
+        <v>2.114</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B79" t="n">
-        <v>3.016520053583096</v>
+        <v>2.907790156090837</v>
       </c>
       <c r="C79" t="n">
-        <v>2.372</v>
+        <v>2.182</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B80" t="n">
-        <v>2.968848840341008</v>
+        <v>2.905543058774172</v>
       </c>
       <c r="C80" t="n">
-        <v>2.436</v>
+        <v>2.25</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -1505,15 +1505,155 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.914676626769969</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.991874104902982</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.933010865725235</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.888204633354935</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.96038139202969</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B81" t="n">
-        <v>2.992004286632954</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B86" t="n">
+        <v>3.026615846686044</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.117149459179692</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.910435567861376</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.969256170087462</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.92306950051392</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.964968911680406</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Modeling/bistability_10.xlsx
+++ b/Modeling/bistability_10.xlsx
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2875485941096902</v>
+        <v>0.2467918547854095</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2794180213365492</v>
+        <v>0.2654338790518102</v>
       </c>
       <c r="C3" t="n">
         <v>0.068</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.318309229157365</v>
+        <v>0.322014860410925</v>
       </c>
       <c r="C4" t="n">
         <v>0.136</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.345530871876517</v>
+        <v>0.2648557118411443</v>
       </c>
       <c r="C5" t="n">
         <v>0.205</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2409973449794933</v>
+        <v>0.2628224611580116</v>
       </c>
       <c r="C6" t="n">
         <v>0.273</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2481884955851724</v>
+        <v>0.3032669507304077</v>
       </c>
       <c r="C7" t="n">
         <v>0.341</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3029273499027089</v>
+        <v>0.2747497991615687</v>
       </c>
       <c r="C8" t="n">
         <v>0.409</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2953103837966581</v>
+        <v>0.2901338641991133</v>
       </c>
       <c r="C9" t="n">
         <v>0.477</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.283564638303279</v>
+        <v>0.3477010033453583</v>
       </c>
       <c r="C10" t="n">
         <v>0.545</v>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3343796924952732</v>
+        <v>0.3369669048666609</v>
       </c>
       <c r="C11" t="n">
         <v>0.614</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4293383821105887</v>
+        <v>0.3977426272349319</v>
       </c>
       <c r="C12" t="n">
         <v>0.6820000000000001</v>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3896370166961422</v>
+        <v>0.4312522180594682</v>
       </c>
       <c r="C13" t="n">
         <v>0.75</v>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4831147551967516</v>
+        <v>0.4468575965370446</v>
       </c>
       <c r="C14" t="n">
         <v>0.8179999999999999</v>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.512521368909541</v>
+        <v>0.5170773611280741</v>
       </c>
       <c r="C15" t="n">
         <v>0.886</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.497435152532279</v>
+        <v>0.4732983720023196</v>
       </c>
       <c r="C16" t="n">
         <v>0.955</v>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5544227097374782</v>
+        <v>0.5604309951272436</v>
       </c>
       <c r="C17" t="n">
         <v>1.023</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5831149924311537</v>
+        <v>0.560685234906367</v>
       </c>
       <c r="C18" t="n">
         <v>1.091</v>
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5789687549611914</v>
+        <v>0.5964638443632262</v>
       </c>
       <c r="C19" t="n">
         <v>1.159</v>
@@ -654,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6357967358946003</v>
+        <v>0.578288970576891</v>
       </c>
       <c r="C20" t="n">
         <v>1.227</v>
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6954377068439437</v>
+        <v>0.6573826862162413</v>
       </c>
       <c r="C21" t="n">
         <v>1.295</v>
@@ -682,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6885053568090425</v>
+        <v>0.6893389361743218</v>
       </c>
       <c r="C22" t="n">
         <v>1.364</v>
@@ -696,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8339640536223288</v>
+        <v>0.6586069693667058</v>
       </c>
       <c r="C23" t="n">
         <v>1.432</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7007600154790288</v>
+        <v>0.7087659226398799</v>
       </c>
       <c r="C24" t="n">
         <v>1.5</v>
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7976732015980093</v>
+        <v>0.8185845287787655</v>
       </c>
       <c r="C25" t="n">
         <v>1.568</v>
@@ -738,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7762932499432863</v>
+        <v>0.8004041754478316</v>
       </c>
       <c r="C26" t="n">
         <v>1.636</v>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8443225891840347</v>
+        <v>0.8796776626003326</v>
       </c>
       <c r="C27" t="n">
         <v>1.705</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8433117738546917</v>
+        <v>0.8405834935995073</v>
       </c>
       <c r="C28" t="n">
         <v>1.773</v>
@@ -780,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.830517987458049</v>
+        <v>1.49036926477399</v>
       </c>
       <c r="C29" t="n">
         <v>1.841</v>
@@ -794,7 +794,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.555176981763619</v>
+        <v>1.634355057675958</v>
       </c>
       <c r="C30" t="n">
         <v>1.909</v>
@@ -808,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.951520721034437</v>
+        <v>2.025795505230997</v>
       </c>
       <c r="C31" t="n">
         <v>1.977</v>
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.27839429195789</v>
+        <v>2.341206787297131</v>
       </c>
       <c r="C32" t="n">
         <v>2.045</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.337836179203002</v>
+        <v>2.404701367408861</v>
       </c>
       <c r="C33" t="n">
         <v>2.114</v>
@@ -850,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.311577715613861</v>
+        <v>2.485086935584995</v>
       </c>
       <c r="C34" t="n">
         <v>2.182</v>
@@ -864,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.729628538973033</v>
+        <v>2.569863475423076</v>
       </c>
       <c r="C35" t="n">
         <v>2.25</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.788142994322274</v>
+        <v>2.652274907812707</v>
       </c>
       <c r="C36" t="n">
         <v>2.318</v>
@@ -892,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.700010136453095</v>
+        <v>2.589427008482979</v>
       </c>
       <c r="C37" t="n">
         <v>2.386</v>
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.712577879686547</v>
+        <v>2.766135431816673</v>
       </c>
       <c r="C38" t="n">
         <v>2.455</v>
@@ -920,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.841804539430921</v>
+        <v>2.766577414620053</v>
       </c>
       <c r="C39" t="n">
         <v>2.523</v>
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.748033616098138</v>
+        <v>2.878007606758063</v>
       </c>
       <c r="C40" t="n">
         <v>2.591</v>
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.728372844592026</v>
+        <v>2.85810944305609</v>
       </c>
       <c r="C41" t="n">
         <v>2.659</v>
@@ -962,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.897491922511118</v>
+        <v>2.810400280876221</v>
       </c>
       <c r="C42" t="n">
         <v>2.727</v>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.867262166573819</v>
+        <v>2.809825901930363</v>
       </c>
       <c r="C43" t="n">
         <v>2.795</v>
@@ -990,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.888376282248822</v>
+        <v>2.941312332429168</v>
       </c>
       <c r="C44" t="n">
         <v>2.864</v>
@@ -1004,7 +1004,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.954605677192177</v>
+        <v>2.806971707290384</v>
       </c>
       <c r="C45" t="n">
         <v>2.932</v>
@@ -1018,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.938241905547384</v>
+        <v>2.820899888321218</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
@@ -1029,631 +1029,5671 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2510155830840102</v>
+        <v>0.2415558345186007</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2136309335068659</v>
+        <v>0.285372916570501</v>
       </c>
       <c r="C48" t="n">
         <v>0.068</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2296506026085207</v>
+        <v>0.2393324599177369</v>
       </c>
       <c r="C49" t="n">
         <v>0.136</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2891129334462733</v>
+        <v>0.2580594866552419</v>
       </c>
       <c r="C50" t="n">
         <v>0.205</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3354756078249574</v>
+        <v>0.2682289048854268</v>
       </c>
       <c r="C51" t="n">
         <v>0.273</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2347045674231626</v>
+        <v>0.2876549815541126</v>
       </c>
       <c r="C52" t="n">
         <v>0.341</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3223829923678005</v>
+        <v>0.3122398914571783</v>
       </c>
       <c r="C53" t="n">
         <v>0.409</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3332821043723344</v>
+        <v>0.3063109963214209</v>
       </c>
       <c r="C54" t="n">
         <v>0.477</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3573851865371614</v>
+        <v>0.3232242938207445</v>
       </c>
       <c r="C55" t="n">
         <v>0.545</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3695162453242785</v>
+        <v>0.3467867855582126</v>
       </c>
       <c r="C56" t="n">
         <v>0.614</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.416517205587207</v>
+        <v>0.443202015437965</v>
       </c>
       <c r="C57" t="n">
         <v>0.6820000000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3897340569292002</v>
+        <v>0.4133261048429446</v>
       </c>
       <c r="C58" t="n">
         <v>0.75</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4849964298485828</v>
+        <v>0.4394925715408651</v>
       </c>
       <c r="C59" t="n">
         <v>0.8179999999999999</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5247853128543545</v>
+        <v>0.5150607625860691</v>
       </c>
       <c r="C60" t="n">
         <v>0.886</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5453851376188192</v>
+        <v>0.6008082899816575</v>
       </c>
       <c r="C61" t="n">
         <v>0.955</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6389683139420264</v>
+        <v>0.5022430916145982</v>
       </c>
       <c r="C62" t="n">
         <v>1.023</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7640274167394305</v>
+        <v>0.6293004393837248</v>
       </c>
       <c r="C63" t="n">
         <v>1.091</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.186976764151625</v>
+        <v>0.6023976804142546</v>
       </c>
       <c r="C64" t="n">
         <v>1.159</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.411852378811724</v>
+        <v>0.5915752578365071</v>
       </c>
       <c r="C65" t="n">
         <v>1.227</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.501854358581157</v>
+        <v>0.6709568947232358</v>
       </c>
       <c r="C66" t="n">
         <v>1.295</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.672187198419552</v>
+        <v>0.6531135607260887</v>
       </c>
       <c r="C67" t="n">
         <v>1.364</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.590185875309879</v>
+        <v>0.6679930736901225</v>
       </c>
       <c r="C68" t="n">
         <v>1.432</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.620446629798236</v>
+        <v>0.7625934794711291</v>
       </c>
       <c r="C69" t="n">
         <v>1.5</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.753549065853205</v>
+        <v>0.7436457475811115</v>
       </c>
       <c r="C70" t="n">
         <v>1.568</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.722245314963888</v>
+        <v>0.7938500498600723</v>
       </c>
       <c r="C71" t="n">
         <v>1.636</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.786139510824258</v>
+        <v>0.9391363391876471</v>
       </c>
       <c r="C72" t="n">
         <v>1.705</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.774892401027516</v>
+        <v>0.8365713263538049</v>
       </c>
       <c r="C73" t="n">
         <v>1.773</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.857654258652051</v>
+        <v>1.474388487850031</v>
       </c>
       <c r="C74" t="n">
         <v>1.841</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.827223125235182</v>
+        <v>1.508873746131039</v>
       </c>
       <c r="C75" t="n">
         <v>1.909</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.84411128241841</v>
+        <v>2.190308880046472</v>
       </c>
       <c r="C76" t="n">
         <v>1.977</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.869854269952671</v>
+        <v>2.15983907005675</v>
       </c>
       <c r="C77" t="n">
         <v>2.045</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.931040109967769</v>
+        <v>2.395630145528614</v>
       </c>
       <c r="C78" t="n">
         <v>2.114</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.907790156090837</v>
+        <v>2.483047140538086</v>
       </c>
       <c r="C79" t="n">
         <v>2.182</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.905543058774172</v>
+        <v>2.644909506063625</v>
       </c>
       <c r="C80" t="n">
         <v>2.25</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.914676626769969</v>
+        <v>2.582577863280441</v>
       </c>
       <c r="C81" t="n">
         <v>2.318</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.991874104902982</v>
+        <v>2.690811359076875</v>
       </c>
       <c r="C82" t="n">
         <v>2.386</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="n">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.933010865725235</v>
+        <v>2.701456377745934</v>
       </c>
       <c r="C83" t="n">
         <v>2.455</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.888204633354935</v>
+        <v>2.733001532211214</v>
       </c>
       <c r="C84" t="n">
         <v>2.523</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.96038139202969</v>
+        <v>2.725259347863993</v>
       </c>
       <c r="C85" t="n">
         <v>2.591</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.026615846686044</v>
+        <v>2.824190458427941</v>
       </c>
       <c r="C86" t="n">
         <v>2.659</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.117149459179692</v>
+        <v>2.827667041147585</v>
       </c>
       <c r="C87" t="n">
         <v>2.727</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.910435567861376</v>
+        <v>2.818910778526023</v>
       </c>
       <c r="C88" t="n">
         <v>2.795</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.969256170087462</v>
+        <v>2.830383966801429</v>
       </c>
       <c r="C89" t="n">
         <v>2.864</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.92306950051392</v>
+        <v>2.818579727248824</v>
       </c>
       <c r="C90" t="n">
         <v>2.932</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.844298697488795</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2834623792345892</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2261900968600591</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.2102439163859809</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.2786207254208808</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.2290426425151778</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.292501496725507</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.295104401232825</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.2611460335503221</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3599142179367174</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3536055751408781</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3799308797056277</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4383853872436517</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.4552326397306343</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5293542601177998</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5534867078124731</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.567842772329082</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6241214078214632</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5745850390477534</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6239873463466497</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.634646998739411</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6549265308390395</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.671483947046398</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7132493456522215</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7409018610959922</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7831889399334613</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.84448576844186</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.149601680910911</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.020872831024038</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.058680956974034</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.520906901441456</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.305231661088432</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.473340092243073</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.486938874254069</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.516599901918639</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.526679483515599</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.719945213529504</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.751334510109093</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.736191839145564</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.822206943995498</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.774336956569188</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.8583080744555</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.8975913705072</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.886940560751619</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.928166240857065</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.862857779271156</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2837449261786367</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2662693079042974</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2828066090736895</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.2761162601462021</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3809347033117043</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.2965470924346603</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.295391637620669</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.2905905131029367</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.3520850564528185</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.3483135453845185</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.349775914637496</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4033728760339056</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4688810511610444</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4707857594760613</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5448063904716879</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.577828481868069</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5312618476812837</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.5289446413096679</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.656397523629158</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.6253358393077119</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.6284911988345701</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7268629916762205</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7874597741357581</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.8276936509580949</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8385517874602401</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8058436924582364</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9395841737498373</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.213757891062553</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.576033663665966</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.94628280893737</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2.192255804212871</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2.364282011113573</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2.525208266708785</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2.621320792453409</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2.687869521412779</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.665682309024163</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2.71365094219652</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2.710684468781544</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2.815169020773261</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2.802605086014641</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.796379259350612</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.783550665024659</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.890480104796871</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.816952779014364</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.990602635109056</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.2382575708702752</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.2591713495463873</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.2367046489113873</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.3174850649982457</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.2216482245140655</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.2705524250173135</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.2782376657196205</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.3485565166082341</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.3626292265995092</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.3709788190545657</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.3807832168873202</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.4901578729696818</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.4899685563208654</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.4726483995775549</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.5593106820305948</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.5117863883753944</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.5487625006527128</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.6124582015455909</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.6781521116847693</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7113103633796133</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.676833040117361</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.7315003506423768</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.8286441672173469</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.7361156431395027</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.7259533661487528</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9551890156869647</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9550020969887515</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.25190470901081</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.773481886343954</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.28766650713508</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.373545327703972</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.546827032893459</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.417630182319654</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.589573505824685</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.625465169735105</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.779720785655742</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.770579041234652</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2.772854224769484</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.836758762229934</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.770083242445665</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.817878640528426</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.888864532673109</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.855016207648585</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.913687624750111</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.838451511833122</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.2220021625286197</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.2663675055199581</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.2813672520141056</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.269606126029621</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.2935716168151667</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.2657657317725632</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.3026105982328149</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.3412488142442238</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.317369065213232</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.3094583949011708</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.3766514740455884</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.4497876973747567</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.4243270239982134</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.5512615712126157</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.5423810790523458</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.5442274150980331</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.7719629732363001</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.981879312342056</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.378223291845215</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2.531187286109151</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.545804246663837</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.634918241834022</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2.696193857543562</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.712307581937988</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2.782333770998374</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.753802339803237</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.947535183305221</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.774599190864371</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.887798163567419</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.793230456333395</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.863234828057387</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.976039551371275</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.881185283478384</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.868205081337219</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.914515343917074</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.986018035511819</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.975958699908516</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2.915649635225518</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2.969226561359736</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2.955928956896271</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2.96339514352806</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.023215716660799</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2.983143092314957</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2.957222174657887</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B91" t="n">
-        <v>2.964968911680406</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B271" t="n">
+        <v>3.006060329452399</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.2426181288391231</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2596010007492237</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.2345667345100548</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.3420173499169265</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.3154163417784858</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.2875987301224655</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.2720364207010526</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.2908084163139419</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.3583608385942446</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.3799481093916354</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.4141051040511229</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.4253804127164786</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.4533534456137944</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.5147298417046925</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.7066410715696778</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.6956644271401298</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8224979473608993</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2.075894512196168</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2.460083619636207</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2.51808184871986</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2.576224501278813</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2.617298940896806</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2.723658545421589</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2.742058631438318</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.74864854670354</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2.662315897724052</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2.801695808639316</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2.787970492922003</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.846813647613443</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.807285574135061</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2.884222026427251</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.88220207085674</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2.976031613332874</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.871574529938486</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2.850372312367202</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.957486281013573</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3.132300330250859</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.980676358590351</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2.993218997599059</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.950613214903555</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2.952917713990437</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.007352706420023</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.024405726067041</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.03738932337115</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.032031930066985</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.2499606480127834</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.2584866258823554</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.2521223067681008</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.2492579633048458</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.2545030901731938</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.290773754131833</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.2750024334410127</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.3522531256012021</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.3513393470573222</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.3519936504580269</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.4050860128344633</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.3692304364631868</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.4347874266591878</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.6030323076925679</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.5026386274641156</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.6228827607611442</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.8150770220206487</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2.030376688899331</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2.365263161598822</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.483867238118707</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2.614779379767419</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2.66152114432114</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2.654466786884309</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.709559698788187</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2.782037383194713</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2.780917996107592</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2.720493542641752</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2.759238431827838</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2.841709208333658</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2.794716337305244</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2.910317311492972</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2.872908331235736</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2.820771929059017</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2.944236060538997</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2.997298339537902</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2.865476561988935</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2.937774717289895</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2.920446047190364</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2.977033732586311</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3.011449702930205</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.045117230925511</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2.927063225165619</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2.982637343096265</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2.966695826745077</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D360" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.056567544946234</v>
+      </c>
+      <c r="C361" t="n">
+        <v>3</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.2272488179572952</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.2909661583941835</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D363" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.2991073069540314</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D364" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.3514962053425181</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D365" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.252782832962173</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D366" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.250996616960907</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D367" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.3740114791831936</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.3406249549468677</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.3875556537840005</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.3291484589906196</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D371" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.3637834960642219</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.411598709640734</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D373" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.4394981482629267</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D374" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.4865824269906479</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D375" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.5296721854873002</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D376" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.5708343510256204</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D377" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.6786582970769447</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2.000963601795247</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2.369939712320929</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2.553142205680381</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2.678025467077711</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2.599756855402001</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D383" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2.6702703022155</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2.75760517605332</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2.698602798269358</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D386" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2.821772795930234</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D387" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2.822401283813598</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2.769478099856925</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2.728715955085838</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D390" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2.961169953598414</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D391" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2.804991992164765</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.06875974779213</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D393" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2.953191821178883</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2.807746132186464</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D395" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.90085368078993</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D396" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.988074138120358</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D397" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2.892952918445982</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2.939776802679111</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D399" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2.979294392804752</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D400" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2.978281654250707</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D401" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B402" t="n">
+        <v>3.032748234463507</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D402" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2.941052908200787</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B404" t="n">
+        <v>3.021769885197443</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2.974022744759476</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D405" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B406" t="n">
+        <v>3.02664455482177</v>
+      </c>
+      <c r="C406" t="n">
+        <v>3</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.2691804385422963</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.244882166668847</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.2521197853223821</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.2759721028562779</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.2683620973711419</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.2754619556785109</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.2659935344984717</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.3203276370834294</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.3018538820824917</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.3666142501261995</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.3678209034002412</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D417" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.4320750278249226</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D418" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.4653107237773612</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="D419" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.5350788630662497</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D420" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.5002095772802932</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.6602202501764288</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="D422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.8646169381246404</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D423" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2.00778457289938</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2.457608671768317</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="D425" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2.382315543073791</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2.512474428115646</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="D427" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2.604142967008892</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2.733030314846055</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D429" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2.760674373201357</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="D430" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2.730268713012898</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D431" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2.809963506188538</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D432" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2.805227663308502</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D433" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2.726073178299509</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2.774568533480727</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D435" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2.897635371868418</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2.952841220022763</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D437" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2.853716933548641</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="D438" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2.842933094349388</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D439" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2.967898227402646</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2.917699078496669</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D441" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2.850001467048233</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="D442" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2.945068242565973</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3.013015291996055</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="D444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2.973559022647712</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="D445" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2.942611164700331</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="D446" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2.924593936651599</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="D447" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2.987026552286534</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="D448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2.969827156019182</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D449" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3.009802054147606</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="D450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2.976180075664218</v>
+      </c>
+      <c r="C451" t="n">
+        <v>3</v>
+      </c>
+      <c r="D451" t="s">
         <v>4</v>
       </c>
     </row>
